--- a/xo-starter-excel/src/test/resources/META-INF/xo/export/chart_export.xlsx
+++ b/xo-starter-excel/src/test/resources/META-INF/xo/export/chart_export.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="15480" windowHeight="11640"/>
+    <workbookView windowHeight="11640" windowWidth="15480" xWindow="480" yWindow="45"/>
   </bookViews>
   <sheets>
-    <sheet name="职员薪资统计图表" sheetId="1" r:id="rId1"/>
+    <sheet name="职员薪资统计图表" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="124519" calcOnSave="0"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>hesong</author>
+  </authors>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>职员薪资：</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -40,34 +49,19 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>${employees.name}</t>
+    <t>${employee.name}</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>${employees.payment}</t>
+    <t>${employee.payment}</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>${employees.bonus}</t>
+    <t>${employee.bonus}</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>${employees.name}</t>
-  </si>
-  <si>
-    <t>${employees.payment}</t>
-  </si>
-  <si>
-    <t>${employees.bonus}</t>
-  </si>
-  <si>
-    <t>${employees_JxLsC_.name}</t>
-  </si>
-  <si>
-    <t>${employees_JxLsC_.payment}</t>
-  </si>
-  <si>
-    <t>${employees_JxLsC_.bonus}</t>
+    <t/>
   </si>
   <si>
     <t>职员0</t>
@@ -91,11 +85,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="194" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -139,6 +133,19 @@
       <sz val="9"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -196,43 +203,58 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="4" numFmtId="10" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="176" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -241,7 +263,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr b="1" baseline="0" i="0" strike="noStrike" sz="800" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -251,7 +273,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="en-US"/>
+              <a:rPr altLang="en-US" lang="en-US"/>
               <a:t>Employee payment</a:t>
             </a:r>
           </a:p>
@@ -265,6 +287,7 @@
           <c:y val="4.0650567877317856E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -272,12 +295,16 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
       <c:hPercent val="66"/>
+      <c:rotY val="20"/>
       <c:depthPercent val="100"/>
       <c:rAngAx val="1"/>
     </c:view3D>
     <c:floor>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="C0C0C0"/>
@@ -291,6 +318,7 @@
       </c:spPr>
     </c:floor>
     <c:sideWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="C0C0C0"/>
@@ -304,6 +332,7 @@
       </c:spPr>
     </c:sideWall>
     <c:backWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="C0C0C0"/>
@@ -331,6 +360,7 @@
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -348,13 +378,14 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>职员薪资统计图表!$A$20:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>${employees.name}</c:v>
+                  <c:v>${employee.name}</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>合计：</c:v>
@@ -368,7 +399,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:pt formatCode="0.00_ " idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -378,18 +409,30 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="67650688"/>
-        <c:axId val="67652224"/>
+        <c:axId val="192928768"/>
+        <c:axId val="169835840"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67650688"/>
+        <c:axId val="192928768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
           <a:ln w="3175">
@@ -404,7 +447,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="575" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr b="0" baseline="0" i="0" strike="noStrike" sz="575" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -416,19 +459,21 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67652224"/>
+        <c:crossAx val="169835840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="2"/>
         <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67652224"/>
+        <c:axId val="169835840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -441,6 +486,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="3175">
@@ -455,7 +502,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="575" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr b="0" baseline="0" i="0" strike="noStrike" sz="575" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -467,7 +514,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67650688"/>
+        <c:crossAx val="192928768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -490,6 +537,7 @@
           <c:h val="5.6910795028244997E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
@@ -506,7 +554,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="525" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:defRPr b="0" baseline="0" i="0" strike="noStrike" sz="525" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -521,6 +569,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -538,7 +587,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="575" b="0" i="0" u="none" strike="noStrike" baseline="0">
+        <a:defRPr b="0" baseline="0" i="0" strike="noStrike" sz="575" u="none">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -552,15 +601,25 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" footer="0.5" header="0.5" l="0.75" r="0.75" t="1"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -569,7 +628,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr b="1" baseline="0" i="0" strike="noStrike" sz="800" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -579,7 +638,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="en-US"/>
+              <a:rPr altLang="en-US" lang="en-US"/>
               <a:t>Employee payment</a:t>
             </a:r>
           </a:p>
@@ -593,6 +652,7 @@
           <c:y val="3.6764705882352942E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -600,9 +660,22 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
       <c:perspective val="0"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -626,7 +699,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>${employees.payment}</c:v>
+                  <c:v>${employee.payment}</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -643,10 +716,8 @@
             </a:ln>
           </c:spPr>
           <c:dPt>
-            <c:idx val="0"/>
-          </c:dPt>
-          <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="993366"/>
@@ -661,6 +732,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFFFCC"/>
@@ -675,6 +747,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="CCFFFF"/>
@@ -689,6 +762,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="660066"/>
@@ -703,6 +777,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF8080"/>
@@ -721,7 +796,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>${employees.name}</c:v>
+                  <c:v>${employee.name}</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>合计：</c:v>
@@ -735,7 +810,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:pt formatCode="0.00_ " idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -745,6 +820,15 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
       </c:pie3DChart>
       <c:spPr>
         <a:noFill/>
@@ -765,6 +849,7 @@
           <c:h val="0.26131233595800524"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
@@ -781,12 +866,12 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:defRPr b="0" baseline="0" i="0" strike="noStrike" sz="1000" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin charset="-122" pitchFamily="34" typeface="微软雅黑"/>
+              <a:ea charset="-122" pitchFamily="34" typeface="微软雅黑"/>
               <a:cs typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
@@ -796,6 +881,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -813,7 +899,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="525" b="0" i="0" u="none" strike="noStrike" baseline="0">
+        <a:defRPr b="0" baseline="0" i="0" strike="noStrike" sz="525" u="none">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -827,14 +913,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" footer="0.5" header="0.5" l="0.75" r="0.75" t="1"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -903,14 +989,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -977,6 +1063,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1011,6 +1098,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1066,7 +1154,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1075,13 +1163,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1091,7 +1179,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1100,7 +1188,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1109,7 +1197,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1119,12 +1207,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1155,7 +1243,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1174,7 +1262,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1186,14 +1274,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="19.5703125" collapsed="false"/>
     <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="false"/>
@@ -1202,149 +1290,127 @@
     <col min="5" max="5" customWidth="true" hidden="true" width="8.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="2" ht="20.100000000000001" customHeight="1"/>
-    <row r="3" ht="20.100000000000001" customHeight="1"/>
-    <row r="4" ht="20.100000000000001" customHeight="1"/>
-    <row r="5" ht="20.100000000000001" customHeight="1"/>
-    <row r="6" ht="20.100000000000001" customHeight="1"/>
-    <row r="7" ht="20.100000000000001" customHeight="1"/>
-    <row r="8" ht="20.100000000000001" customHeight="1"/>
-    <row r="9" ht="20.100000000000001" customHeight="1"/>
-    <row r="10" ht="20.100000000000001" customHeight="1"/>
-    <row r="11" ht="20.100000000000001" customHeight="1"/>
-    <row r="12" ht="20.100000000000001" customHeight="1"/>
-    <row r="13" ht="20.100000000000001" customHeight="1"/>
-    <row r="14" ht="20.100000000000001" customHeight="1"/>
-    <row r="15" ht="20.100000000000001" customHeight="1"/>
-    <row r="16" ht="20.100000000000001" customHeight="1"/>
-    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1"/>
-    <row r="18" spans="1:3" ht="30" customHeight="1">
-      <c r="A18" s="3" t="s">
+    <row customHeight="true" ht="20.1" r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1"/>
+    </row>
+    <row customHeight="true" ht="20.1" r="2" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="true" ht="20.1" r="3" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="true" ht="20.1" r="4" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="true" ht="20.1" r="5" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="true" ht="20.1" r="6" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="true" ht="20.1" r="7" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="true" ht="20.1" r="8" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="true" ht="20.1" r="9" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="true" ht="20.1" r="10" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="true" ht="20.1" r="11" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="true" ht="20.1" r="12" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="true" ht="20.1" r="13" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="true" ht="20.1" r="14" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="true" ht="20.1" r="15" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="true" ht="20.1" r="16" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="true" ht="20.1" r="17" spans="1:3" x14ac:dyDescent="0.2"/>
+    <row customHeight="true" ht="30.0" r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="4" t="s">
+    <row customHeight="true" ht="20.1" r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="8" t="s">
+    <row customHeight="true" ht="20.1" r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="7" t="n">
+        <v>20000.0</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="20.1" r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="7" t="n">
+        <v>21000.0</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row ht="20.1" r="22" spans="1:3" x14ac:dyDescent="0.35" customHeight="true">
+      <c r="A22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="7" t="n">
+        <v>22000.0</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row ht="20.1" r="23" spans="1:3" x14ac:dyDescent="0.35" customHeight="true">
+      <c r="A23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="7" t="n">
+        <v>23000.0</v>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row ht="20.1" r="24" spans="1:3" x14ac:dyDescent="0.35" customHeight="true">
+      <c r="A24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="7" t="n">
+        <v>24000.0</v>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row ht="20.1" r="25" spans="1:3" x14ac:dyDescent="0.35" customHeight="true">
+      <c r="A25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="9" t="n">
-        <v>20000.0</v>
-      </c>
-      <c r="C20" s="9" t="n">
-        <v>0.25</v>
+      <c r="B25" s="7" t="n">
+        <v>25000.0</v>
+      </c>
+      <c r="C25" s="7" t="n">
+        <v>0.2</v>
       </c>
     </row>
-    <row r="21" ht="20.1" customHeight="true">
-      <c r="A21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="9" t="n">
-        <v>21000.0</v>
-      </c>
-      <c r="C21" s="9" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="22" ht="20.1" customHeight="true">
-      <c r="A22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="9" t="n">
-        <v>22000.0</v>
-      </c>
-      <c r="C22" s="9" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="23" ht="20.1" customHeight="true">
-      <c r="A23" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="9" t="n">
-        <v>23000.0</v>
-      </c>
-      <c r="C23" s="9" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="24" ht="20.1" customHeight="true">
-      <c r="A24" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="9" t="n">
-        <v>24000.0</v>
-      </c>
-      <c r="C24" s="9" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="25" ht="20.1" customHeight="true">
-      <c r="A25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="9" t="n">
-        <v>25000.0</v>
-      </c>
-      <c r="C25" s="9" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30.0" customHeight="true">
-      <c r="A26" s="5" t="s">
+    <row ht="30.0" r="26" spans="1:3" x14ac:dyDescent="0.35" customHeight="true">
+      <c r="A26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4">
         <f>SUM(B20:B25)</f>
       </c>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" customHeight="true">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" ht="16.5" customHeight="true">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" ht="16.5" customHeight="true">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" customHeight="true">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" customHeight="true">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
+      <c r="C26" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells>
     <mergeCell ref="A18:C18"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>